--- a/db/db-challenge2/データベース定義書テンプレート.xlsx
+++ b/db/db-challenge2/データベース定義書テンプレート.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23229"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="410" documentId="11_8E513BE869550975F20FED1A71AE06380525DFC9" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{72C34C2C-29D3-4497-9479-8D844D1A32CA}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9D9D41FC-ABC7-4C59-BFCB-03C40EAB01D4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="510" yWindow="570" windowWidth="27735" windowHeight="11925" firstSheet="4" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="510" yWindow="570" windowWidth="27735" windowHeight="11925" firstSheet="5" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="改訂履歴" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="132">
   <si>
     <t>改定履歴</t>
   </si>
@@ -71,6 +71,30 @@
   </si>
   <si>
     <t>tasks</t>
+  </si>
+  <si>
+    <t>勤務先-電話番号の物理名を、work_phoneへ変更</t>
+  </si>
+  <si>
+    <t>携帯電話-電話番号の物理名を、mobile_phoneへ変更</t>
+  </si>
+  <si>
+    <t>ファイル送信許可フラグの物理名を、is_file_sendableへ変更</t>
+  </si>
+  <si>
+    <t>ダイレクトチャットフラグの物理名を、is_direct_chatへ変更</t>
+  </si>
+  <si>
+    <t>chatrooms,chats,tasks</t>
+  </si>
+  <si>
+    <t>・削除フラグ・投稿、更新者・投稿、更新日の順に変更</t>
+  </si>
+  <si>
+    <t>users,chatrooms,chats,tasks</t>
+  </si>
+  <si>
+    <t>created_atの型をDATETIME型へ、デフォルト値をCURRENT_TIMESTAMPへ変更</t>
   </si>
   <si>
     <t>役割</t>
@@ -266,7 +290,7 @@
     <t>勤務先-電話番号</t>
   </si>
   <si>
-    <t>workphone</t>
+    <t>work_phone</t>
   </si>
   <si>
     <t>char</t>
@@ -275,7 +299,7 @@
     <t>携帯電話-電話番号</t>
   </si>
   <si>
-    <t>mobile</t>
+    <t>mobile_phone</t>
   </si>
   <si>
     <t>削除フラグ</t>
@@ -296,10 +320,10 @@
     <t>created_at</t>
   </si>
   <si>
-    <t>timestamp</t>
+    <t>datetime</t>
   </si>
   <si>
-    <t>0000-00-00 00:00:00</t>
+    <t>CURRENT_TIMESTAMP</t>
   </si>
   <si>
     <t>更新日</t>
@@ -308,7 +332,7 @@
     <t>modified_at</t>
   </si>
   <si>
-    <t>CURRENT_TIMESTAMP</t>
+    <t>timestamp</t>
   </si>
   <si>
     <t xml:space="preserve">チャットルームに関する情報を保持するテーブル										
@@ -345,7 +369,7 @@
     <t>ファイル送信許可フラグ</t>
   </si>
   <si>
-    <t>file_is_sendable</t>
+    <t>is_file_sendable</t>
   </si>
   <si>
     <t>送信可:1,送信不可:0</t>
@@ -354,7 +378,7 @@
     <t>ダイレクトチャットフラグ</t>
   </si>
   <si>
-    <t>direct_chat</t>
+    <t>is_direct_chat</t>
   </si>
   <si>
     <t>ダイレクトチャット:1</t>
@@ -409,9 +433,6 @@
   </si>
   <si>
     <t>file</t>
-  </si>
-  <si>
-    <t>投稿日</t>
   </si>
   <si>
     <t>タスク投稿に関する情報を保持するテーブル</t>
@@ -991,7 +1012,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -1042,8 +1063,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1057,10 +1076,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1294,7 +1312,7 @@
   <dimension ref="A1:Z1030"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:A8"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -1374,7 +1392,7 @@
         <v>43955</v>
       </c>
       <c r="B3" s="7"/>
-      <c r="C3" s="32" t="s">
+      <c r="C3" s="29" t="s">
         <v>5</v>
       </c>
       <c r="D3" s="7" t="s">
@@ -1404,7 +1422,7 @@
       <c r="Z3" s="3"/>
     </row>
     <row r="4" spans="1:26" ht="12.75">
-      <c r="A4" s="26">
+      <c r="A4" s="24">
         <v>44076</v>
       </c>
       <c r="B4" s="7" t="s">
@@ -1438,7 +1456,7 @@
       <c r="Z4" s="3"/>
     </row>
     <row r="5" spans="1:26" ht="12.75">
-      <c r="A5" s="26">
+      <c r="A5" s="24">
         <v>44076</v>
       </c>
       <c r="B5" s="7" t="s">
@@ -1472,7 +1490,7 @@
       <c r="Z5" s="3"/>
     </row>
     <row r="6" spans="1:26" ht="12.75">
-      <c r="A6" s="26">
+      <c r="A6" s="24">
         <v>44076</v>
       </c>
       <c r="B6" s="7" t="s">
@@ -1506,7 +1524,7 @@
       <c r="Z6" s="3"/>
     </row>
     <row r="7" spans="1:26" ht="12.75">
-      <c r="A7" s="26">
+      <c r="A7" s="24">
         <v>44076</v>
       </c>
       <c r="B7" s="7" t="s">
@@ -1540,7 +1558,7 @@
       <c r="Z7" s="3"/>
     </row>
     <row r="8" spans="1:26" ht="12.75">
-      <c r="A8" s="26">
+      <c r="A8" s="24">
         <v>44076</v>
       </c>
       <c r="B8" s="7" t="s">
@@ -1574,9 +1592,15 @@
       <c r="Z8" s="3"/>
     </row>
     <row r="9" spans="1:26" ht="12.75">
-      <c r="A9" s="8"/>
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
+      <c r="A9" s="8">
+        <v>44077</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="30" t="s">
+        <v>13</v>
+      </c>
       <c r="D9" s="7"/>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
@@ -1602,9 +1626,15 @@
       <c r="Z9" s="3"/>
     </row>
     <row r="10" spans="1:26" ht="12.75">
-      <c r="A10" s="8"/>
-      <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
+      <c r="A10" s="8">
+        <v>44077</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D10" s="7"/>
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
@@ -1630,9 +1660,15 @@
       <c r="Z10" s="3"/>
     </row>
     <row r="11" spans="1:26" ht="12.75">
-      <c r="A11" s="8"/>
-      <c r="B11" s="7"/>
-      <c r="C11" s="7"/>
+      <c r="A11" s="8">
+        <v>44077</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>15</v>
+      </c>
       <c r="D11" s="7"/>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
@@ -1658,9 +1694,15 @@
       <c r="Z11" s="3"/>
     </row>
     <row r="12" spans="1:26" ht="12.75">
-      <c r="A12" s="8"/>
-      <c r="B12" s="7"/>
-      <c r="C12" s="7"/>
+      <c r="A12" s="8">
+        <v>44077</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>16</v>
+      </c>
       <c r="D12" s="7"/>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
@@ -1686,9 +1728,15 @@
       <c r="Z12" s="3"/>
     </row>
     <row r="13" spans="1:26" ht="12.75">
-      <c r="A13" s="8"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="7"/>
+      <c r="A13" s="8">
+        <v>44077</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>18</v>
+      </c>
       <c r="D13" s="7"/>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
@@ -1714,9 +1762,15 @@
       <c r="Z13" s="3"/>
     </row>
     <row r="14" spans="1:26" ht="12.75">
-      <c r="A14" s="8"/>
-      <c r="B14" s="9"/>
-      <c r="C14" s="7"/>
+      <c r="A14" s="8">
+        <v>44077</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>20</v>
+      </c>
       <c r="D14" s="7"/>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
@@ -30201,7 +30255,7 @@
   <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="E13" sqref="E13:G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="12.75"/>
@@ -30221,206 +30275,206 @@
       <c r="A1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="33" t="s">
+      <c r="B1" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24"/>
-      <c r="J1" s="24"/>
-      <c r="K1" s="24"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="30"/>
+      <c r="K1" s="30"/>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" s="33" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="24"/>
-      <c r="H2" s="24"/>
-      <c r="I2" s="24"/>
-      <c r="J2" s="24"/>
-      <c r="K2" s="24"/>
+        <v>21</v>
+      </c>
+      <c r="B2" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="30"/>
+      <c r="J2" s="30"/>
+      <c r="K2" s="30"/>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3" s="33"/>
-      <c r="C3" s="33"/>
-      <c r="D3" s="33"/>
-      <c r="E3" s="24"/>
-      <c r="F3" s="24"/>
-      <c r="G3" s="24"/>
-      <c r="H3" s="24"/>
-      <c r="I3" s="24"/>
-      <c r="J3" s="24"/>
-      <c r="K3" s="24"/>
+        <v>23</v>
+      </c>
+      <c r="B3" s="32"/>
+      <c r="C3" s="32"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="30"/>
+      <c r="H3" s="30"/>
+      <c r="I3" s="30"/>
+      <c r="J3" s="30"/>
+      <c r="K3" s="30"/>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="24"/>
+      <c r="A4" s="30"/>
       <c r="B4" s="2" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="I4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K4" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="J4" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>15</v>
-      </c>
     </row>
     <row r="5" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A5" s="24"/>
+      <c r="A5" s="30"/>
       <c r="B5" s="5">
         <f t="shared" ref="B5:B16" si="0">ROW()-4</f>
         <v>1</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="F5" s="16">
         <v>11</v>
       </c>
       <c r="G5" s="20"/>
       <c r="H5" s="18" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="I5" s="13" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="J5" s="13" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="K5" s="20"/>
     </row>
     <row r="6" spans="1:11">
-      <c r="A6" s="24"/>
+      <c r="A6" s="30"/>
       <c r="B6" s="5">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="F6" s="16">
         <v>100</v>
       </c>
       <c r="G6" s="20"/>
       <c r="H6" s="18" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="I6" s="20"/>
       <c r="J6" s="20"/>
       <c r="K6" s="20"/>
     </row>
     <row r="7" spans="1:11">
-      <c r="A7" s="24"/>
+      <c r="A7" s="30"/>
       <c r="B7" s="5">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="F7" s="16">
         <v>100</v>
       </c>
       <c r="G7" s="20"/>
       <c r="H7" s="18" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="I7" s="20"/>
       <c r="J7" s="20"/>
       <c r="K7" s="20"/>
     </row>
     <row r="8" spans="1:11">
-      <c r="A8" s="24"/>
+      <c r="A8" s="30"/>
       <c r="B8" s="5">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="E8" s="13" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="F8" s="16">
         <v>100</v>
       </c>
       <c r="G8" s="20"/>
       <c r="H8" s="18" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="I8" s="20"/>
       <c r="J8" s="20"/>
       <c r="K8" s="20"/>
     </row>
     <row r="9" spans="1:11">
-      <c r="A9" s="24"/>
+      <c r="A9" s="30"/>
       <c r="B9" s="5">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="F9" s="16">
         <v>1000</v>
@@ -30432,19 +30486,19 @@
       <c r="K9" s="20"/>
     </row>
     <row r="10" spans="1:11">
-      <c r="A10" s="24"/>
+      <c r="A10" s="30"/>
       <c r="B10" s="5">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="E10" s="13" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="F10" s="16">
         <v>13</v>
@@ -30456,19 +30510,19 @@
       <c r="K10" s="15"/>
     </row>
     <row r="11" spans="1:11">
-      <c r="A11" s="24"/>
+      <c r="A11" s="30"/>
       <c r="B11" s="5">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="E11" s="13" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="F11" s="16">
         <v>13</v>
@@ -30480,87 +30534,87 @@
       <c r="K11" s="15"/>
     </row>
     <row r="12" spans="1:11">
-      <c r="A12" s="24"/>
+      <c r="A12" s="30"/>
       <c r="B12" s="5">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="E12" s="27" t="s">
-        <v>47</v>
-      </c>
-      <c r="F12" s="28">
+        <v>54</v>
+      </c>
+      <c r="E12" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="F12" s="26">
         <v>1</v>
       </c>
-      <c r="G12" s="29">
+      <c r="G12" s="27">
         <v>0</v>
       </c>
       <c r="H12" s="18"/>
       <c r="I12" s="20"/>
       <c r="J12" s="20" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="K12" s="15"/>
     </row>
     <row r="13" spans="1:11">
-      <c r="A13" s="24"/>
+      <c r="A13" s="30"/>
       <c r="B13" s="5">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="D13" s="14" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="E13" s="15" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="F13" s="17"/>
       <c r="G13" s="20" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="H13" s="18" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="I13" s="20"/>
       <c r="J13" s="20"/>
       <c r="K13" s="20"/>
     </row>
     <row r="14" spans="1:11">
-      <c r="A14" s="24"/>
+      <c r="A14" s="30"/>
       <c r="B14" s="5">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="D14" s="14" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="E14" s="15" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="F14" s="16"/>
       <c r="G14" s="20" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="H14" s="18" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="I14" s="20"/>
       <c r="J14" s="20"/>
       <c r="K14" s="20"/>
     </row>
     <row r="15" spans="1:11">
-      <c r="A15" s="24"/>
+      <c r="A15" s="30"/>
       <c r="B15" s="5">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -30576,7 +30630,7 @@
       <c r="K15" s="20"/>
     </row>
     <row r="16" spans="1:11">
-      <c r="A16" s="24"/>
+      <c r="A16" s="30"/>
       <c r="B16" s="5">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -30605,8 +30659,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F8CF83C-24FF-41E0-93AF-FA632FE58AB9}">
   <dimension ref="A1:K16"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13:G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="12.75"/>
@@ -30628,154 +30682,154 @@
       <c r="A1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="33" t="s">
+      <c r="B1" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24"/>
-      <c r="J1" s="24"/>
-      <c r="K1" s="24"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="30"/>
+      <c r="K1" s="30"/>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" s="34" t="s">
-        <v>56</v>
-      </c>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="24"/>
-      <c r="H2" s="24"/>
-      <c r="I2" s="24"/>
-      <c r="J2" s="24"/>
-      <c r="K2" s="24"/>
+        <v>21</v>
+      </c>
+      <c r="B2" s="33" t="s">
+        <v>64</v>
+      </c>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="30"/>
+      <c r="J2" s="30"/>
+      <c r="K2" s="30"/>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3" s="35"/>
-      <c r="C3" s="35"/>
-      <c r="D3" s="35"/>
-      <c r="E3" s="24"/>
-      <c r="F3" s="24"/>
-      <c r="G3" s="24"/>
-      <c r="H3" s="24"/>
-      <c r="I3" s="24"/>
-      <c r="J3" s="24"/>
-      <c r="K3" s="24"/>
+        <v>23</v>
+      </c>
+      <c r="B3" s="34"/>
+      <c r="C3" s="34"/>
+      <c r="D3" s="34"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="30"/>
+      <c r="H3" s="30"/>
+      <c r="I3" s="30"/>
+      <c r="J3" s="30"/>
+      <c r="K3" s="30"/>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="24"/>
+      <c r="A4" s="30"/>
       <c r="B4" s="2" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="I4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K4" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="J4" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>15</v>
-      </c>
     </row>
     <row r="5" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A5" s="24"/>
+      <c r="A5" s="30"/>
       <c r="B5" s="5">
         <f t="shared" ref="B5:B16" si="0">ROW()-4</f>
         <v>1</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="F5" s="16">
         <v>11</v>
       </c>
       <c r="G5" s="20"/>
       <c r="H5" s="18" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="I5" s="13" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="J5" s="13" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="K5" s="20"/>
     </row>
     <row r="6" spans="1:11">
-      <c r="A6" s="24"/>
+      <c r="A6" s="30"/>
       <c r="B6" s="5">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="F6" s="16">
         <v>100</v>
       </c>
       <c r="G6" s="20"/>
       <c r="H6" s="18" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="I6" s="20"/>
       <c r="J6" s="20"/>
       <c r="K6" s="20"/>
     </row>
     <row r="7" spans="1:11">
-      <c r="A7" s="24"/>
+      <c r="A7" s="30"/>
       <c r="B7" s="5">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="C7" s="24" t="s">
-        <v>59</v>
+      <c r="C7" s="30" t="s">
+        <v>67</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="F7" s="16">
         <v>1000</v>
@@ -30787,21 +30841,21 @@
       <c r="K7" s="20"/>
     </row>
     <row r="8" spans="1:11">
-      <c r="A8" s="24"/>
+      <c r="A8" s="30"/>
       <c r="B8" s="5">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="E8" s="27" t="s">
-        <v>47</v>
-      </c>
-      <c r="F8" s="28">
+        <v>70</v>
+      </c>
+      <c r="E8" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="F8" s="26">
         <v>1</v>
       </c>
       <c r="G8" s="20">
@@ -30810,176 +30864,176 @@
       <c r="H8" s="18"/>
       <c r="I8" s="20"/>
       <c r="J8" s="20" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="K8" s="20"/>
     </row>
     <row r="9" spans="1:11">
-      <c r="A9" s="24"/>
+      <c r="A9" s="30"/>
       <c r="B9" s="5">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="E9" s="27" t="s">
-        <v>47</v>
-      </c>
-      <c r="F9" s="28">
+        <v>73</v>
+      </c>
+      <c r="E9" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="F9" s="26">
         <v>1</v>
       </c>
       <c r="G9" s="20">
         <v>0</v>
       </c>
-      <c r="H9" s="24"/>
+      <c r="H9" s="30"/>
       <c r="I9" s="20"/>
       <c r="J9" s="20" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="K9" s="20"/>
     </row>
     <row r="10" spans="1:11">
-      <c r="A10" s="24"/>
+      <c r="A10" s="30"/>
       <c r="B10" s="5">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="E10" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="F10" s="16">
-        <v>11</v>
-      </c>
-      <c r="G10" s="20"/>
-      <c r="H10" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="I10" s="20" t="s">
-        <v>69</v>
-      </c>
-      <c r="J10" s="20"/>
+        <v>54</v>
+      </c>
+      <c r="E10" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="F10" s="26">
+        <v>1</v>
+      </c>
+      <c r="G10" s="15">
+        <v>0</v>
+      </c>
+      <c r="H10" s="18"/>
+      <c r="I10" s="20"/>
+      <c r="J10" s="20" t="s">
+        <v>56</v>
+      </c>
       <c r="K10" s="15"/>
     </row>
     <row r="11" spans="1:11">
-      <c r="A11" s="24"/>
+      <c r="A11" s="30"/>
       <c r="B11" s="5">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="E11" s="13" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="F11" s="16">
         <v>11</v>
       </c>
       <c r="G11" s="20"/>
       <c r="H11" s="18" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="I11" s="20" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="J11" s="20"/>
       <c r="K11" s="15"/>
     </row>
     <row r="12" spans="1:11">
-      <c r="A12" s="24"/>
+      <c r="A12" s="30"/>
       <c r="B12" s="5">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="E12" s="27" t="s">
-        <v>47</v>
-      </c>
-      <c r="F12" s="28">
-        <v>1</v>
-      </c>
-      <c r="G12" s="15">
-        <v>0</v>
-      </c>
-      <c r="H12" s="18"/>
-      <c r="I12" s="20"/>
-      <c r="J12" s="20" t="s">
-        <v>48</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="E12" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="F12" s="16">
+        <v>11</v>
+      </c>
+      <c r="G12" s="20"/>
+      <c r="H12" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="I12" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="J12" s="30"/>
       <c r="K12" s="15"/>
     </row>
     <row r="13" spans="1:11">
-      <c r="A13" s="24"/>
+      <c r="A13" s="30"/>
       <c r="B13" s="5">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="D13" s="14" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="E13" s="15" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="F13" s="17"/>
       <c r="G13" s="20" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="H13" s="18" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="I13" s="20"/>
       <c r="J13" s="20"/>
       <c r="K13" s="20"/>
     </row>
     <row r="14" spans="1:11">
-      <c r="A14" s="24"/>
+      <c r="A14" s="30"/>
       <c r="B14" s="5">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="D14" s="14" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="E14" s="15" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="F14" s="16"/>
       <c r="G14" s="20" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="H14" s="18" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="I14" s="20"/>
       <c r="J14" s="20"/>
       <c r="K14" s="20"/>
     </row>
     <row r="15" spans="1:11">
-      <c r="A15" s="24"/>
+      <c r="A15" s="30"/>
       <c r="B15" s="5">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -30995,19 +31049,19 @@
       <c r="K15" s="20"/>
     </row>
     <row r="16" spans="1:11">
-      <c r="A16" s="24"/>
+      <c r="A16" s="30"/>
       <c r="B16" s="5">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="C16" s="12"/>
-      <c r="D16" s="14"/>
-      <c r="E16" s="15"/>
-      <c r="F16" s="16"/>
-      <c r="G16" s="20"/>
-      <c r="H16" s="16"/>
-      <c r="I16" s="20"/>
-      <c r="J16" s="20"/>
+      <c r="C16" s="30"/>
+      <c r="D16" s="30"/>
+      <c r="E16" s="30"/>
+      <c r="F16" s="30"/>
+      <c r="G16" s="30"/>
+      <c r="H16" s="30"/>
+      <c r="I16" s="30"/>
+      <c r="J16" s="30"/>
       <c r="K16" s="20"/>
     </row>
   </sheetData>
@@ -31024,7 +31078,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FD46F6D-4144-4BEB-AB90-3E973B679188}">
   <dimension ref="A1:K16"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
@@ -31045,168 +31099,168 @@
       <c r="A1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="33" t="s">
+      <c r="B1" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24"/>
-      <c r="J1" s="24"/>
-      <c r="K1" s="24"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="30"/>
+      <c r="K1" s="30"/>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" s="33" t="s">
-        <v>72</v>
-      </c>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="24"/>
-      <c r="H2" s="24"/>
-      <c r="I2" s="24"/>
-      <c r="J2" s="24"/>
-      <c r="K2" s="24"/>
+        <v>21</v>
+      </c>
+      <c r="B2" s="32" t="s">
+        <v>80</v>
+      </c>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="30"/>
+      <c r="J2" s="30"/>
+      <c r="K2" s="30"/>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3" s="33"/>
-      <c r="C3" s="33"/>
-      <c r="D3" s="33"/>
-      <c r="E3" s="24"/>
-      <c r="F3" s="24"/>
-      <c r="G3" s="24"/>
-      <c r="H3" s="24"/>
-      <c r="I3" s="24"/>
-      <c r="J3" s="24"/>
-      <c r="K3" s="24"/>
+        <v>23</v>
+      </c>
+      <c r="B3" s="32"/>
+      <c r="C3" s="32"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="30"/>
+      <c r="H3" s="30"/>
+      <c r="I3" s="30"/>
+      <c r="J3" s="30"/>
+      <c r="K3" s="30"/>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="24"/>
+      <c r="A4" s="30"/>
       <c r="B4" s="2" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="I4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K4" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="J4" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>15</v>
-      </c>
     </row>
     <row r="5" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A5" s="24"/>
+      <c r="A5" s="30"/>
       <c r="B5" s="5">
         <f t="shared" ref="B5:B16" si="0">ROW()-4</f>
         <v>1</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="F5" s="16">
         <v>11</v>
       </c>
       <c r="G5" s="20"/>
       <c r="H5" s="18" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="I5" s="13" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="J5" s="13"/>
       <c r="K5" s="20"/>
     </row>
     <row r="6" spans="1:11">
-      <c r="A6" s="24"/>
+      <c r="A6" s="30"/>
       <c r="B6" s="5">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="F6" s="16">
         <v>11</v>
       </c>
       <c r="G6" s="20"/>
       <c r="H6" s="18" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="I6" s="13" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="J6" s="13"/>
       <c r="K6" s="20"/>
     </row>
     <row r="7" spans="1:11">
-      <c r="A7" s="24"/>
+      <c r="A7" s="30"/>
       <c r="B7" s="5">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="F7" s="16"/>
       <c r="G7" s="20" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="H7" s="18" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="I7" s="20"/>
       <c r="J7" s="20"/>
       <c r="K7" s="20"/>
     </row>
     <row r="8" spans="1:11">
-      <c r="A8" s="24"/>
+      <c r="A8" s="30"/>
       <c r="B8" s="5">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -31222,7 +31276,7 @@
       <c r="K8" s="20"/>
     </row>
     <row r="9" spans="1:11">
-      <c r="A9" s="24"/>
+      <c r="A9" s="30"/>
       <c r="B9" s="5">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -31238,7 +31292,7 @@
       <c r="K9" s="20"/>
     </row>
     <row r="10" spans="1:11">
-      <c r="A10" s="24"/>
+      <c r="A10" s="30"/>
       <c r="B10" s="5">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -31254,7 +31308,7 @@
       <c r="K10" s="15"/>
     </row>
     <row r="11" spans="1:11">
-      <c r="A11" s="24"/>
+      <c r="A11" s="30"/>
       <c r="B11" s="5">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -31270,7 +31324,7 @@
       <c r="K11" s="15"/>
     </row>
     <row r="12" spans="1:11">
-      <c r="A12" s="24"/>
+      <c r="A12" s="30"/>
       <c r="B12" s="5">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -31286,7 +31340,7 @@
       <c r="K12" s="15"/>
     </row>
     <row r="13" spans="1:11">
-      <c r="A13" s="24"/>
+      <c r="A13" s="30"/>
       <c r="B13" s="5">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -31302,7 +31356,7 @@
       <c r="K13" s="20"/>
     </row>
     <row r="14" spans="1:11">
-      <c r="A14" s="24"/>
+      <c r="A14" s="30"/>
       <c r="B14" s="5">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -31318,7 +31372,7 @@
       <c r="K14" s="20"/>
     </row>
     <row r="15" spans="1:11">
-      <c r="A15" s="24"/>
+      <c r="A15" s="30"/>
       <c r="B15" s="5">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -31334,7 +31388,7 @@
       <c r="K15" s="20"/>
     </row>
     <row r="16" spans="1:11">
-      <c r="A16" s="24"/>
+      <c r="A16" s="30"/>
       <c r="B16" s="5">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -31363,8 +31417,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C04E120C-B706-494B-9338-A8E9969A7101}">
   <dimension ref="A1:K16"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12:G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="12.75"/>
@@ -31384,182 +31438,182 @@
       <c r="A1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="33" t="s">
+      <c r="B1" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24"/>
-      <c r="J1" s="24"/>
-      <c r="K1" s="24"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="30"/>
+      <c r="K1" s="30"/>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" s="33" t="s">
-        <v>78</v>
-      </c>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="24"/>
-      <c r="H2" s="24"/>
-      <c r="I2" s="24"/>
-      <c r="J2" s="24"/>
-      <c r="K2" s="24"/>
+        <v>21</v>
+      </c>
+      <c r="B2" s="32" t="s">
+        <v>86</v>
+      </c>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="30"/>
+      <c r="J2" s="30"/>
+      <c r="K2" s="30"/>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3" s="33"/>
-      <c r="C3" s="33"/>
-      <c r="D3" s="33"/>
-      <c r="E3" s="24"/>
-      <c r="F3" s="24"/>
-      <c r="G3" s="24"/>
-      <c r="H3" s="24"/>
-      <c r="I3" s="24"/>
-      <c r="J3" s="24"/>
-      <c r="K3" s="24"/>
+        <v>23</v>
+      </c>
+      <c r="B3" s="32"/>
+      <c r="C3" s="32"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="30"/>
+      <c r="H3" s="30"/>
+      <c r="I3" s="30"/>
+      <c r="J3" s="30"/>
+      <c r="K3" s="30"/>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="24"/>
+      <c r="A4" s="30"/>
       <c r="B4" s="2" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="I4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K4" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="J4" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>15</v>
-      </c>
     </row>
     <row r="5" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A5" s="24"/>
+      <c r="A5" s="30"/>
       <c r="B5" s="5">
         <f t="shared" ref="B5:B16" si="0">ROW()-4</f>
         <v>1</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="F5" s="16">
         <v>11</v>
       </c>
       <c r="G5" s="20"/>
       <c r="H5" s="18" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="I5" s="13" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="J5" s="13" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="K5" s="20"/>
     </row>
     <row r="6" spans="1:11">
-      <c r="A6" s="24"/>
+      <c r="A6" s="30"/>
       <c r="B6" s="5">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="C6" s="24" t="s">
-        <v>57</v>
+      <c r="C6" s="30" t="s">
+        <v>65</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="F6" s="16">
         <v>11</v>
       </c>
       <c r="G6" s="20"/>
       <c r="H6" s="18" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="I6" s="20" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="J6" s="20"/>
       <c r="K6" s="20"/>
     </row>
     <row r="7" spans="1:11">
-      <c r="A7" s="24"/>
+      <c r="A7" s="30"/>
       <c r="B7" s="5">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="F7" s="16">
         <v>1000</v>
       </c>
       <c r="G7" s="20"/>
       <c r="H7" s="18" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="I7" s="20"/>
       <c r="J7" s="20"/>
       <c r="K7" s="20"/>
     </row>
     <row r="8" spans="1:11">
-      <c r="A8" s="24"/>
+      <c r="A8" s="30"/>
       <c r="B8" s="5">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="E8" s="13" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="F8" s="16">
         <v>100</v>
@@ -31571,143 +31625,143 @@
       <c r="K8" s="20"/>
     </row>
     <row r="9" spans="1:11">
-      <c r="A9" s="24"/>
+      <c r="A9" s="30"/>
       <c r="B9" s="5">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="E9" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="F9" s="16">
-        <v>11</v>
-      </c>
-      <c r="G9" s="20"/>
-      <c r="H9" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="I9" s="20" t="s">
-        <v>69</v>
-      </c>
-      <c r="J9" s="20"/>
+        <v>54</v>
+      </c>
+      <c r="E9" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="F9" s="26">
+        <v>1</v>
+      </c>
+      <c r="G9" s="15">
+        <v>0</v>
+      </c>
+      <c r="H9" s="18"/>
+      <c r="I9" s="20"/>
+      <c r="J9" s="20" t="s">
+        <v>56</v>
+      </c>
       <c r="K9" s="20"/>
     </row>
     <row r="10" spans="1:11">
-      <c r="A10" s="24"/>
+      <c r="A10" s="30"/>
       <c r="B10" s="5">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="E10" s="13" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="F10" s="16">
         <v>11</v>
       </c>
       <c r="G10" s="20"/>
       <c r="H10" s="18" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="I10" s="20" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="J10" s="20"/>
       <c r="K10" s="15"/>
     </row>
     <row r="11" spans="1:11">
-      <c r="A11" s="24"/>
+      <c r="A11" s="30"/>
       <c r="B11" s="5">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="E11" s="27" t="s">
-        <v>47</v>
-      </c>
-      <c r="F11" s="31">
-        <v>1</v>
-      </c>
-      <c r="G11" s="30">
-        <v>0</v>
-      </c>
-      <c r="H11" s="18"/>
-      <c r="I11" s="20"/>
-      <c r="J11" s="20" t="s">
-        <v>48</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="E11" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="F11" s="16">
+        <v>11</v>
+      </c>
+      <c r="G11" s="20"/>
+      <c r="H11" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="I11" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="J11" s="30"/>
       <c r="K11" s="15"/>
     </row>
     <row r="12" spans="1:11">
-      <c r="A12" s="24"/>
+      <c r="A12" s="30"/>
       <c r="B12" s="5">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>84</v>
+        <v>57</v>
       </c>
       <c r="D12" s="14" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="E12" s="15" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="F12" s="17"/>
       <c r="G12" s="20" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="H12" s="18" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="I12" s="20"/>
       <c r="J12" s="20"/>
       <c r="K12" s="15"/>
     </row>
     <row r="13" spans="1:11">
-      <c r="A13" s="24"/>
+      <c r="A13" s="30"/>
       <c r="B13" s="5">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="D13" s="14" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="E13" s="15" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="F13" s="16"/>
       <c r="G13" s="20" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="H13" s="18" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="I13" s="20"/>
       <c r="J13" s="20"/>
       <c r="K13" s="20"/>
     </row>
     <row r="14" spans="1:11">
-      <c r="A14" s="24"/>
+      <c r="A14" s="30"/>
       <c r="B14" s="5">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -31723,7 +31777,7 @@
       <c r="K14" s="20"/>
     </row>
     <row r="15" spans="1:11">
-      <c r="A15" s="24"/>
+      <c r="A15" s="30"/>
       <c r="B15" s="5">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -31739,7 +31793,7 @@
       <c r="K15" s="20"/>
     </row>
     <row r="16" spans="1:11">
-      <c r="A16" s="24"/>
+      <c r="A16" s="30"/>
       <c r="B16" s="5">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -31769,7 +31823,7 @@
   <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="E14" sqref="E14:G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="12.75"/>
@@ -31780,7 +31834,7 @@
     <col min="4" max="4" width="22" style="22" customWidth="1"/>
     <col min="5" max="5" width="9.140625" style="22"/>
     <col min="6" max="6" width="5.28515625" style="22" customWidth="1"/>
-    <col min="7" max="7" width="12.28515625" style="22" customWidth="1"/>
+    <col min="7" max="7" width="24" style="22" customWidth="1"/>
     <col min="8" max="8" width="10.28515625" style="22" customWidth="1"/>
     <col min="9" max="16384" width="14.42578125" style="22"/>
   </cols>
@@ -31789,210 +31843,210 @@
       <c r="A1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="33" t="s">
+      <c r="B1" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24"/>
-      <c r="J1" s="24"/>
-      <c r="K1" s="24"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="30"/>
+      <c r="K1" s="30"/>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" s="33" t="s">
-        <v>85</v>
-      </c>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="24"/>
-      <c r="H2" s="24"/>
-      <c r="I2" s="24"/>
-      <c r="J2" s="24"/>
-      <c r="K2" s="24"/>
+        <v>21</v>
+      </c>
+      <c r="B2" s="32" t="s">
+        <v>92</v>
+      </c>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="30"/>
+      <c r="J2" s="30"/>
+      <c r="K2" s="30"/>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3" s="33"/>
-      <c r="C3" s="33"/>
-      <c r="D3" s="33"/>
-      <c r="E3" s="24"/>
-      <c r="F3" s="24"/>
-      <c r="G3" s="24"/>
-      <c r="H3" s="24"/>
-      <c r="I3" s="24"/>
-      <c r="J3" s="24"/>
-      <c r="K3" s="24"/>
+        <v>23</v>
+      </c>
+      <c r="B3" s="32"/>
+      <c r="C3" s="32"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="30"/>
+      <c r="H3" s="30"/>
+      <c r="I3" s="30"/>
+      <c r="J3" s="30"/>
+      <c r="K3" s="30"/>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="24"/>
+      <c r="A4" s="30"/>
       <c r="B4" s="2" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="I4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K4" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="J4" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>15</v>
-      </c>
     </row>
     <row r="5" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A5" s="24"/>
+      <c r="A5" s="30"/>
       <c r="B5" s="5">
         <f t="shared" ref="B5:B16" si="0">ROW()-4</f>
         <v>1</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="F5" s="16">
         <v>11</v>
       </c>
       <c r="G5" s="20"/>
       <c r="H5" s="18" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="I5" s="13" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="J5" s="13" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="K5" s="20"/>
     </row>
     <row r="6" spans="1:11">
-      <c r="A6" s="24"/>
+      <c r="A6" s="30"/>
       <c r="B6" s="5">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="F6" s="16">
         <v>11</v>
       </c>
       <c r="G6" s="20"/>
       <c r="H6" s="18" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="I6" s="20" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="J6" s="20"/>
       <c r="K6" s="20"/>
     </row>
     <row r="7" spans="1:11">
-      <c r="A7" s="24"/>
+      <c r="A7" s="30"/>
       <c r="B7" s="5">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="F7" s="16">
         <v>1000</v>
       </c>
       <c r="G7" s="20"/>
       <c r="H7" s="18" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="I7" s="20"/>
       <c r="J7" s="20"/>
       <c r="K7" s="20"/>
     </row>
     <row r="8" spans="1:11">
-      <c r="A8" s="24"/>
+      <c r="A8" s="30"/>
       <c r="B8" s="5">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="E8" s="13" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="F8" s="16">
         <v>11</v>
       </c>
       <c r="G8" s="20"/>
       <c r="H8" s="18" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="I8" s="20" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="J8" s="20"/>
       <c r="K8" s="20"/>
     </row>
     <row r="9" spans="1:11">
-      <c r="A9" s="24"/>
+      <c r="A9" s="30"/>
       <c r="B9" s="5">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="F9" s="16"/>
       <c r="G9" s="20"/>
@@ -32002,171 +32056,171 @@
       <c r="K9" s="20"/>
     </row>
     <row r="10" spans="1:11">
-      <c r="A10" s="24"/>
+      <c r="A10" s="30"/>
       <c r="B10" s="5">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>93</v>
-      </c>
-      <c r="E10" s="27" t="s">
-        <v>47</v>
-      </c>
-      <c r="F10" s="28">
+        <v>100</v>
+      </c>
+      <c r="E10" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="F10" s="26">
         <v>1</v>
       </c>
-      <c r="G10" s="30">
+      <c r="G10" s="28">
         <v>0</v>
       </c>
       <c r="H10" s="18"/>
       <c r="I10" s="20"/>
       <c r="J10" s="20" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="K10" s="15"/>
     </row>
     <row r="11" spans="1:11">
-      <c r="A11" s="24"/>
+      <c r="A11" s="30"/>
       <c r="B11" s="5">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="E11" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="F11" s="16">
-        <v>11</v>
-      </c>
-      <c r="G11" s="20"/>
-      <c r="H11" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="I11" s="20" t="s">
-        <v>69</v>
-      </c>
-      <c r="J11" s="20"/>
+        <v>54</v>
+      </c>
+      <c r="E11" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="F11" s="26">
+        <v>1</v>
+      </c>
+      <c r="G11" s="15">
+        <v>0</v>
+      </c>
+      <c r="H11" s="18"/>
+      <c r="I11" s="20"/>
+      <c r="J11" s="20" t="s">
+        <v>56</v>
+      </c>
       <c r="K11" s="15"/>
     </row>
     <row r="12" spans="1:11">
-      <c r="A12" s="24"/>
+      <c r="A12" s="30"/>
       <c r="B12" s="5">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="E12" s="13" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="F12" s="16">
         <v>11</v>
       </c>
-      <c r="G12" s="15"/>
+      <c r="G12" s="20"/>
       <c r="H12" s="18" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="I12" s="20" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="J12" s="20"/>
       <c r="K12" s="15"/>
     </row>
     <row r="13" spans="1:11">
-      <c r="A13" s="24"/>
+      <c r="A13" s="30"/>
       <c r="B13" s="5">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="E13" s="27" t="s">
-        <v>47</v>
-      </c>
-      <c r="F13" s="28">
-        <v>1</v>
-      </c>
-      <c r="G13" s="24">
-        <v>0</v>
-      </c>
-      <c r="H13" s="18"/>
-      <c r="I13" s="20"/>
-      <c r="J13" s="20" t="s">
-        <v>48</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="E13" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="F13" s="16">
+        <v>11</v>
+      </c>
+      <c r="G13" s="20"/>
+      <c r="H13" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="I13" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="J13" s="30"/>
       <c r="K13" s="20"/>
     </row>
     <row r="14" spans="1:11">
-      <c r="A14" s="24"/>
+      <c r="A14" s="30"/>
       <c r="B14" s="5">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>84</v>
+        <v>57</v>
       </c>
       <c r="D14" s="14" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="E14" s="15" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="F14" s="17"/>
       <c r="G14" s="20" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="H14" s="18" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="I14" s="20"/>
       <c r="J14" s="20"/>
       <c r="K14" s="20"/>
     </row>
     <row r="15" spans="1:11">
-      <c r="A15" s="24"/>
+      <c r="A15" s="30"/>
       <c r="B15" s="5">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="D15" s="14" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="E15" s="15" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="F15" s="16"/>
       <c r="G15" s="20" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="H15" s="18" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="20"/>
       <c r="K15" s="20"/>
     </row>
     <row r="16" spans="1:11">
-      <c r="A16" s="24"/>
+      <c r="A16" s="30"/>
       <c r="B16" s="5">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -32216,82 +32270,82 @@
       <c r="A1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24"/>
-      <c r="J1" s="24"/>
-      <c r="K1" s="24"/>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="30"/>
+      <c r="K1" s="30"/>
     </row>
     <row r="2" spans="1:11" ht="12.75">
       <c r="A2" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" s="33"/>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="24"/>
-      <c r="H2" s="24"/>
-      <c r="I2" s="24"/>
-      <c r="J2" s="24"/>
-      <c r="K2" s="24"/>
+        <v>21</v>
+      </c>
+      <c r="B2" s="32"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="30"/>
+      <c r="J2" s="30"/>
+      <c r="K2" s="30"/>
     </row>
     <row r="3" spans="1:11" ht="12.75">
       <c r="A3" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3" s="33"/>
-      <c r="C3" s="33"/>
-      <c r="D3" s="33"/>
-      <c r="E3" s="24"/>
-      <c r="F3" s="24"/>
-      <c r="G3" s="24"/>
-      <c r="H3" s="24"/>
-      <c r="I3" s="24"/>
-      <c r="J3" s="24"/>
-      <c r="K3" s="24"/>
+        <v>23</v>
+      </c>
+      <c r="B3" s="32"/>
+      <c r="C3" s="32"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="30"/>
+      <c r="H3" s="30"/>
+      <c r="I3" s="30"/>
+      <c r="J3" s="30"/>
+      <c r="K3" s="30"/>
     </row>
     <row r="4" spans="1:11" ht="12.75">
-      <c r="A4" s="24"/>
+      <c r="A4" s="30"/>
       <c r="B4" s="2" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="I4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K4" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="J4" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>15</v>
-      </c>
     </row>
     <row r="5" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A5" s="24"/>
+      <c r="A5" s="30"/>
       <c r="B5" s="5">
         <f t="shared" ref="B5:B16" si="0">ROW()-4</f>
         <v>1</v>
@@ -32307,7 +32361,7 @@
       <c r="K5" s="20"/>
     </row>
     <row r="6" spans="1:11" ht="12.75">
-      <c r="A6" s="24"/>
+      <c r="A6" s="30"/>
       <c r="B6" s="5">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -32323,7 +32377,7 @@
       <c r="K6" s="20"/>
     </row>
     <row r="7" spans="1:11" ht="12.75">
-      <c r="A7" s="24"/>
+      <c r="A7" s="30"/>
       <c r="B7" s="5">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -32339,7 +32393,7 @@
       <c r="K7" s="20"/>
     </row>
     <row r="8" spans="1:11" ht="12.75">
-      <c r="A8" s="24"/>
+      <c r="A8" s="30"/>
       <c r="B8" s="5">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -32355,7 +32409,7 @@
       <c r="K8" s="20"/>
     </row>
     <row r="9" spans="1:11" ht="12.75">
-      <c r="A9" s="24"/>
+      <c r="A9" s="30"/>
       <c r="B9" s="5">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -32371,7 +32425,7 @@
       <c r="K9" s="20"/>
     </row>
     <row r="10" spans="1:11" ht="12.75">
-      <c r="A10" s="24"/>
+      <c r="A10" s="30"/>
       <c r="B10" s="5">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -32387,7 +32441,7 @@
       <c r="K10" s="15"/>
     </row>
     <row r="11" spans="1:11" ht="12.75">
-      <c r="A11" s="24"/>
+      <c r="A11" s="30"/>
       <c r="B11" s="5">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -32403,7 +32457,7 @@
       <c r="K11" s="15"/>
     </row>
     <row r="12" spans="1:11" ht="12.75">
-      <c r="A12" s="24"/>
+      <c r="A12" s="30"/>
       <c r="B12" s="5">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -32419,7 +32473,7 @@
       <c r="K12" s="15"/>
     </row>
     <row r="13" spans="1:11" ht="12.75">
-      <c r="A13" s="24"/>
+      <c r="A13" s="30"/>
       <c r="B13" s="5">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -32435,7 +32489,7 @@
       <c r="K13" s="20"/>
     </row>
     <row r="14" spans="1:11" ht="12.75">
-      <c r="A14" s="24"/>
+      <c r="A14" s="30"/>
       <c r="B14" s="5">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -32451,7 +32505,7 @@
       <c r="K14" s="20"/>
     </row>
     <row r="15" spans="1:11" ht="12.75">
-      <c r="A15" s="24"/>
+      <c r="A15" s="30"/>
       <c r="B15" s="5">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -32467,7 +32521,7 @@
       <c r="K15" s="20"/>
     </row>
     <row r="16" spans="1:11" ht="12.75">
-      <c r="A16" s="24"/>
+      <c r="A16" s="30"/>
       <c r="B16" s="5">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -32519,168 +32573,168 @@
       <c r="A1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="36" t="s">
-        <v>95</v>
-      </c>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24"/>
-      <c r="J1" s="24"/>
-      <c r="K1" s="24"/>
-      <c r="L1" s="24"/>
-      <c r="M1" s="24"/>
+      <c r="B1" s="35" t="s">
+        <v>102</v>
+      </c>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="30"/>
+      <c r="K1" s="30"/>
+      <c r="L1" s="30"/>
+      <c r="M1" s="30"/>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" s="38" t="s">
-        <v>96</v>
-      </c>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="24"/>
-      <c r="H2" s="24"/>
-      <c r="I2" s="24"/>
-      <c r="J2" s="24"/>
-      <c r="K2" s="24"/>
-      <c r="L2" s="24"/>
-      <c r="M2" s="24"/>
+        <v>21</v>
+      </c>
+      <c r="B2" s="37" t="s">
+        <v>103</v>
+      </c>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="30"/>
+      <c r="J2" s="30"/>
+      <c r="K2" s="30"/>
+      <c r="L2" s="30"/>
+      <c r="M2" s="30"/>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3" s="38" t="s">
-        <v>97</v>
-      </c>
-      <c r="C3" s="37"/>
-      <c r="D3" s="37"/>
-      <c r="E3" s="24"/>
-      <c r="F3" s="24"/>
-      <c r="G3" s="24"/>
-      <c r="H3" s="24"/>
-      <c r="I3" s="24"/>
-      <c r="J3" s="24"/>
-      <c r="K3" s="24"/>
-      <c r="L3" s="24"/>
-      <c r="M3" s="24"/>
+        <v>23</v>
+      </c>
+      <c r="B3" s="37" t="s">
+        <v>104</v>
+      </c>
+      <c r="C3" s="36"/>
+      <c r="D3" s="36"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="30"/>
+      <c r="H3" s="30"/>
+      <c r="I3" s="30"/>
+      <c r="J3" s="30"/>
+      <c r="K3" s="30"/>
+      <c r="L3" s="30"/>
+      <c r="M3" s="30"/>
     </row>
     <row r="4" spans="1:13">
-      <c r="A4" s="24"/>
+      <c r="A4" s="30"/>
       <c r="B4" s="2" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="I4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K4" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="J4" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="L4" s="24"/>
-      <c r="M4" s="24"/>
+      <c r="L4" s="30"/>
+      <c r="M4" s="30"/>
     </row>
     <row r="5" spans="1:13">
-      <c r="A5" s="24"/>
+      <c r="A5" s="30"/>
       <c r="B5" s="5">
         <f t="shared" ref="B5:B12" si="0">ROW()-4</f>
         <v>1</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="F5" s="16">
         <v>11</v>
       </c>
       <c r="G5" s="20"/>
       <c r="H5" s="18" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="I5" s="13" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="J5" s="13" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="K5" s="20"/>
-      <c r="L5" s="24"/>
-      <c r="M5" s="25"/>
+      <c r="L5" s="30"/>
+      <c r="M5" s="31"/>
     </row>
     <row r="6" spans="1:13">
-      <c r="A6" s="24"/>
+      <c r="A6" s="30"/>
       <c r="B6" s="5">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="F6" s="16">
         <v>100</v>
       </c>
       <c r="G6" s="20"/>
       <c r="H6" s="18" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="I6" s="20"/>
       <c r="J6" s="20"/>
       <c r="K6" s="20"/>
-      <c r="L6" s="24"/>
-      <c r="M6" s="25"/>
+      <c r="L6" s="30"/>
+      <c r="M6" s="31"/>
     </row>
     <row r="7" spans="1:13">
-      <c r="A7" s="24"/>
+      <c r="A7" s="30"/>
       <c r="B7" s="5">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="F7" s="16">
         <v>1000</v>
@@ -32690,23 +32744,23 @@
       <c r="I7" s="20"/>
       <c r="J7" s="20"/>
       <c r="K7" s="20"/>
-      <c r="L7" s="24"/>
-      <c r="M7" s="24"/>
+      <c r="L7" s="30"/>
+      <c r="M7" s="30"/>
     </row>
     <row r="8" spans="1:13">
-      <c r="A8" s="24"/>
+      <c r="A8" s="30"/>
       <c r="B8" s="5">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="E8" s="13" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="F8" s="16">
         <v>1</v>
@@ -32715,123 +32769,123 @@
         <v>0</v>
       </c>
       <c r="H8" s="18" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="I8" s="20"/>
       <c r="J8" s="20"/>
       <c r="K8" s="21" t="s">
-        <v>113</v>
-      </c>
-      <c r="L8" s="24"/>
-      <c r="M8" s="24"/>
+        <v>120</v>
+      </c>
+      <c r="L8" s="30"/>
+      <c r="M8" s="30"/>
     </row>
     <row r="9" spans="1:13">
-      <c r="A9" s="24"/>
+      <c r="A9" s="30"/>
       <c r="B9" s="5">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="F9" s="16"/>
       <c r="G9" s="20"/>
       <c r="H9" s="19" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="I9" s="20"/>
       <c r="J9" s="20"/>
       <c r="K9" s="20"/>
-      <c r="L9" s="24"/>
-      <c r="M9" s="24"/>
+      <c r="L9" s="30"/>
+      <c r="M9" s="30"/>
     </row>
     <row r="10" spans="1:13">
-      <c r="A10" s="24"/>
+      <c r="A10" s="30"/>
       <c r="B10" s="5">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="E10" s="13" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="F10" s="16">
         <v>11</v>
       </c>
       <c r="G10" s="20"/>
       <c r="H10" s="19" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="I10" s="20"/>
       <c r="J10" s="20"/>
       <c r="K10" s="15"/>
-      <c r="L10" s="24"/>
-      <c r="M10" s="24"/>
+      <c r="L10" s="30"/>
+      <c r="M10" s="30"/>
     </row>
     <row r="11" spans="1:13">
-      <c r="A11" s="24"/>
+      <c r="A11" s="30"/>
       <c r="B11" s="5">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="E11" s="13" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="F11" s="16"/>
       <c r="G11" s="20"/>
       <c r="H11" s="19" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="I11" s="20"/>
       <c r="J11" s="20"/>
       <c r="K11" s="15"/>
-      <c r="L11" s="24"/>
-      <c r="M11" s="24"/>
+      <c r="L11" s="30"/>
+      <c r="M11" s="30"/>
     </row>
     <row r="12" spans="1:13">
-      <c r="A12" s="24"/>
+      <c r="A12" s="30"/>
       <c r="B12" s="5">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="E12" s="13" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="F12" s="16">
         <v>11</v>
       </c>
       <c r="G12" s="15"/>
       <c r="H12" s="18" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="I12" s="20"/>
       <c r="J12" s="20"/>
       <c r="K12" s="15"/>
-      <c r="L12" s="24"/>
-      <c r="M12" s="24"/>
+      <c r="L12" s="30"/>
+      <c r="M12" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/db/db-challenge2/データベース定義書テンプレート.xlsx
+++ b/db/db-challenge2/データベース定義書テンプレート.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23229"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9D9D41FC-ABC7-4C59-BFCB-03C40EAB01D4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8BA2DD6D-6856-4D9A-B075-FD9205CE914C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="510" yWindow="570" windowWidth="27735" windowHeight="11925" firstSheet="5" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="510" yWindow="570" windowWidth="27735" windowHeight="11925" firstSheet="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="改訂履歴" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="134">
   <si>
     <t>改定履歴</t>
   </si>
@@ -95,6 +95,18 @@
   </si>
   <si>
     <t>created_atの型をDATETIME型へ、デフォルト値をCURRENT_TIMESTAMPへ変更</t>
+  </si>
+  <si>
+    <t>users,chatrooms,chat_participants,chats,tasks</t>
+  </si>
+  <si>
+    <t>倫理名をER図に基づいたものに修正</t>
+  </si>
+  <si>
+    <t>参加日の物理名を、created_atへ変更</t>
+  </si>
+  <si>
+    <t>・作成、更新者・削除フラグ・作成、更新日の順に変更</t>
   </si>
   <si>
     <t>役割</t>
@@ -230,7 +242,7 @@
     <t>その他設定</t>
   </si>
   <si>
-    <t>ユーザーid</t>
+    <t>ユーザーID</t>
   </si>
   <si>
     <t>id</t>
@@ -293,9 +305,6 @@
     <t>work_phone</t>
   </si>
   <si>
-    <t>char</t>
-  </si>
-  <si>
     <t>携帯電話-電話番号</t>
   </si>
   <si>
@@ -308,7 +317,7 @@
     <t>is_deleted</t>
   </si>
   <si>
-    <t>TINYINT</t>
+    <t>tinyint</t>
   </si>
   <si>
     <t>削除済み:1</t>
@@ -354,7 +363,7 @@
 							</t>
   </si>
   <si>
-    <t>チャットid</t>
+    <t>チャットID</t>
   </si>
   <si>
     <t>チャット名</t>
@@ -384,7 +393,7 @@
     <t>ダイレクトチャット:1</t>
   </si>
   <si>
-    <t>作成ユーザーid</t>
+    <t>作成ユーザー</t>
   </si>
   <si>
     <t>created_by</t>
@@ -393,7 +402,7 @@
     <t>FK</t>
   </si>
   <si>
-    <t>更新ユーザーid</t>
+    <t>更新ユーザー</t>
   </si>
   <si>
     <t>updated_by</t>
@@ -414,13 +423,10 @@
     <t>参加日</t>
   </si>
   <si>
-    <t>participation</t>
-  </si>
-  <si>
     <t>チャット投稿に関する情報を保持するテーブル</t>
   </si>
   <si>
-    <t>チャット投稿id</t>
+    <t>チャット投稿ID</t>
   </si>
   <si>
     <t>チャット内容</t>
@@ -429,7 +435,7 @@
     <t>content</t>
   </si>
   <si>
-    <t>添付ファイル</t>
+    <t>添付ファイル名</t>
   </si>
   <si>
     <t>file</t>
@@ -438,13 +444,13 @@
     <t>タスク投稿に関する情報を保持するテーブル</t>
   </si>
   <si>
-    <t>タスク投稿id</t>
+    <t>タスク投稿ID</t>
   </si>
   <si>
     <t>タスク内容</t>
   </si>
   <si>
-    <t>担当ユーザーid</t>
+    <t>担当ユーザーID</t>
   </si>
   <si>
     <t>personnel</t>
@@ -1311,13 +1317,13 @@
   </sheetPr>
   <dimension ref="A1:Z1030"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13:A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="2" max="2" width="23.42578125" customWidth="1"/>
+    <col min="2" max="2" width="40.85546875" customWidth="1"/>
     <col min="3" max="3" width="97" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1796,9 +1802,15 @@
       <c r="Z14" s="3"/>
     </row>
     <row r="15" spans="1:26" ht="12.75">
-      <c r="A15" s="8"/>
-      <c r="B15" s="9"/>
-      <c r="C15" s="7"/>
+      <c r="A15" s="8">
+        <v>44077</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>22</v>
+      </c>
       <c r="D15" s="7"/>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
@@ -1824,9 +1836,15 @@
       <c r="Z15" s="3"/>
     </row>
     <row r="16" spans="1:26" ht="12.75">
-      <c r="A16" s="8"/>
-      <c r="B16" s="9"/>
-      <c r="C16" s="9"/>
+      <c r="A16" s="8">
+        <v>44077</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>23</v>
+      </c>
       <c r="D16" s="7"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1852,9 +1870,15 @@
       <c r="Z16" s="3"/>
     </row>
     <row r="17" spans="1:26" ht="12.75">
-      <c r="A17" s="8"/>
-      <c r="B17" s="9"/>
-      <c r="C17" s="7"/>
+      <c r="A17" s="8">
+        <v>44077</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>24</v>
+      </c>
       <c r="D17" s="7"/>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
@@ -30255,7 +30279,7 @@
   <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E13:G14"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="12.75"/>
@@ -30290,10 +30314,10 @@
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="3" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B2" s="32" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C2" s="32"/>
       <c r="D2" s="32"/>
@@ -30307,7 +30331,7 @@
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="3" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B3" s="32"/>
       <c r="C3" s="32"/>
@@ -30323,34 +30347,34 @@
     <row r="4" spans="1:11">
       <c r="A4" s="30"/>
       <c r="B4" s="2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="E4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="K4" s="2" t="s">
         <v>27</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="15.75" customHeight="1">
@@ -30360,26 +30384,26 @@
         <v>1</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="F5" s="16">
         <v>11</v>
       </c>
       <c r="G5" s="20"/>
       <c r="H5" s="18" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="I5" s="13" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="J5" s="13" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="K5" s="20"/>
     </row>
@@ -30390,20 +30414,20 @@
         <v>2</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="F6" s="16">
         <v>100</v>
       </c>
       <c r="G6" s="20"/>
       <c r="H6" s="18" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="I6" s="20"/>
       <c r="J6" s="20"/>
@@ -30416,20 +30440,20 @@
         <v>3</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="F7" s="16">
         <v>100</v>
       </c>
       <c r="G7" s="20"/>
       <c r="H7" s="18" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="I7" s="20"/>
       <c r="J7" s="20"/>
@@ -30442,20 +30466,20 @@
         <v>4</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="D8" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="E8" s="13" t="s">
         <v>45</v>
-      </c>
-      <c r="E8" s="13" t="s">
-        <v>41</v>
       </c>
       <c r="F8" s="16">
         <v>100</v>
       </c>
       <c r="G8" s="20"/>
       <c r="H8" s="18" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="I8" s="20"/>
       <c r="J8" s="20"/>
@@ -30468,13 +30492,13 @@
         <v>5</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="F9" s="16">
         <v>1000</v>
@@ -30492,13 +30516,13 @@
         <v>6</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="E10" s="13" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="F10" s="16">
         <v>13</v>
@@ -30516,13 +30540,13 @@
         <v>7</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="E11" s="13" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="F11" s="16">
         <v>13</v>
@@ -30540,13 +30564,13 @@
         <v>8</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="E12" s="25" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="F12" s="26">
         <v>1</v>
@@ -30557,7 +30581,7 @@
       <c r="H12" s="18"/>
       <c r="I12" s="20"/>
       <c r="J12" s="20" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="K12" s="15"/>
     </row>
@@ -30568,20 +30592,20 @@
         <v>9</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="D13" s="14" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="E13" s="15" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="F13" s="17"/>
       <c r="G13" s="20" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="H13" s="18" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="I13" s="20"/>
       <c r="J13" s="20"/>
@@ -30594,20 +30618,20 @@
         <v>10</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="D14" s="14" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="E14" s="15" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="F14" s="16"/>
       <c r="G14" s="20" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="H14" s="18" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="I14" s="20"/>
       <c r="J14" s="20"/>
@@ -30659,8 +30683,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F8CF83C-24FF-41E0-93AF-FA632FE58AB9}">
   <dimension ref="A1:K16"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13:G14"/>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="12.75"/>
@@ -30697,10 +30721,10 @@
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="3" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B2" s="33" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C2" s="32"/>
       <c r="D2" s="32"/>
@@ -30714,7 +30738,7 @@
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="3" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B3" s="34"/>
       <c r="C3" s="34"/>
@@ -30730,34 +30754,34 @@
     <row r="4" spans="1:11">
       <c r="A4" s="30"/>
       <c r="B4" s="2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="E4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="K4" s="2" t="s">
         <v>27</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="15.75" customHeight="1">
@@ -30767,26 +30791,26 @@
         <v>1</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="F5" s="16">
         <v>11</v>
       </c>
       <c r="G5" s="20"/>
       <c r="H5" s="18" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="I5" s="13" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="J5" s="13" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="K5" s="20"/>
     </row>
@@ -30797,20 +30821,20 @@
         <v>2</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="F6" s="16">
         <v>100</v>
       </c>
       <c r="G6" s="20"/>
       <c r="H6" s="18" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="I6" s="20"/>
       <c r="J6" s="20"/>
@@ -30823,13 +30847,13 @@
         <v>3</v>
       </c>
       <c r="C7" s="30" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="F7" s="16">
         <v>1000</v>
@@ -30847,13 +30871,13 @@
         <v>4</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="E8" s="25" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="F8" s="26">
         <v>1</v>
@@ -30864,7 +30888,7 @@
       <c r="H8" s="18"/>
       <c r="I8" s="20"/>
       <c r="J8" s="20" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="K8" s="20"/>
     </row>
@@ -30875,13 +30899,13 @@
         <v>5</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="E9" s="25" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="F9" s="26">
         <v>1</v>
@@ -30892,7 +30916,7 @@
       <c r="H9" s="30"/>
       <c r="I9" s="20"/>
       <c r="J9" s="20" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="K9" s="20"/>
     </row>
@@ -30903,25 +30927,25 @@
         <v>6</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>53</v>
+        <v>78</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="E10" s="25" t="s">
-        <v>55</v>
-      </c>
-      <c r="F10" s="26">
-        <v>1</v>
-      </c>
-      <c r="G10" s="15">
-        <v>0</v>
-      </c>
-      <c r="H10" s="18"/>
-      <c r="I10" s="20"/>
-      <c r="J10" s="20" t="s">
-        <v>56</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="E10" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="F10" s="16">
+        <v>11</v>
+      </c>
+      <c r="G10" s="20"/>
+      <c r="H10" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="I10" s="20" t="s">
+        <v>80</v>
+      </c>
+      <c r="J10" s="30"/>
       <c r="K10" s="15"/>
     </row>
     <row r="11" spans="1:11">
@@ -30931,23 +30955,23 @@
         <v>7</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="E11" s="13" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="F11" s="16">
         <v>11</v>
       </c>
       <c r="G11" s="20"/>
       <c r="H11" s="18" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="I11" s="20" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="J11" s="20"/>
       <c r="K11" s="15"/>
@@ -30959,25 +30983,25 @@
         <v>8</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>78</v>
+        <v>56</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="E12" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="F12" s="16">
-        <v>11</v>
-      </c>
-      <c r="G12" s="20"/>
-      <c r="H12" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="I12" s="20" t="s">
-        <v>77</v>
-      </c>
-      <c r="J12" s="30"/>
+        <v>57</v>
+      </c>
+      <c r="E12" s="25" t="s">
+        <v>58</v>
+      </c>
+      <c r="F12" s="26">
+        <v>1</v>
+      </c>
+      <c r="G12" s="15">
+        <v>0</v>
+      </c>
+      <c r="H12" s="18"/>
+      <c r="I12" s="20"/>
+      <c r="J12" s="20" t="s">
+        <v>59</v>
+      </c>
       <c r="K12" s="15"/>
     </row>
     <row r="13" spans="1:11">
@@ -30987,20 +31011,20 @@
         <v>9</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="D13" s="14" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="E13" s="15" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="F13" s="17"/>
       <c r="G13" s="20" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="H13" s="18" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="I13" s="20"/>
       <c r="J13" s="20"/>
@@ -31013,20 +31037,20 @@
         <v>10</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="D14" s="14" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="E14" s="15" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="F14" s="16"/>
       <c r="G14" s="20" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="H14" s="18" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="I14" s="20"/>
       <c r="J14" s="20"/>
@@ -31054,14 +31078,14 @@
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="C16" s="30"/>
-      <c r="D16" s="30"/>
-      <c r="E16" s="30"/>
-      <c r="F16" s="30"/>
-      <c r="G16" s="30"/>
-      <c r="H16" s="30"/>
-      <c r="I16" s="30"/>
-      <c r="J16" s="30"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="15"/>
+      <c r="F16" s="16"/>
+      <c r="G16" s="20"/>
+      <c r="H16" s="16"/>
+      <c r="I16" s="20"/>
+      <c r="J16" s="20"/>
       <c r="K16" s="20"/>
     </row>
   </sheetData>
@@ -31079,7 +31103,7 @@
   <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="12.75"/>
@@ -31114,10 +31138,10 @@
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="3" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B2" s="32" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="C2" s="32"/>
       <c r="D2" s="32"/>
@@ -31131,7 +31155,7 @@
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="3" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B3" s="32"/>
       <c r="C3" s="32"/>
@@ -31147,34 +31171,34 @@
     <row r="4" spans="1:11">
       <c r="A4" s="30"/>
       <c r="B4" s="2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="E4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="K4" s="2" t="s">
         <v>27</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="15.75" customHeight="1">
@@ -31184,23 +31208,23 @@
         <v>1</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="F5" s="16">
         <v>11</v>
       </c>
       <c r="G5" s="20"/>
       <c r="H5" s="18" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="I5" s="13" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="J5" s="13"/>
       <c r="K5" s="20"/>
@@ -31212,23 +31236,23 @@
         <v>2</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="F6" s="16">
         <v>11</v>
       </c>
       <c r="G6" s="20"/>
       <c r="H6" s="18" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="I6" s="13" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="J6" s="13"/>
       <c r="K6" s="20"/>
@@ -31240,20 +31264,20 @@
         <v>3</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>85</v>
+        <v>61</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="F7" s="16"/>
       <c r="G7" s="20" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="H7" s="18" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="I7" s="20"/>
       <c r="J7" s="20"/>
@@ -31417,8 +31441,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C04E120C-B706-494B-9338-A8E9969A7101}">
   <dimension ref="A1:K16"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12:G13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="12.75"/>
@@ -31453,10 +31477,10 @@
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="3" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B2" s="32" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C2" s="32"/>
       <c r="D2" s="32"/>
@@ -31470,7 +31494,7 @@
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="3" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B3" s="32"/>
       <c r="C3" s="32"/>
@@ -31486,34 +31510,34 @@
     <row r="4" spans="1:11">
       <c r="A4" s="30"/>
       <c r="B4" s="2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="E4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="K4" s="2" t="s">
         <v>27</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="15.75" customHeight="1">
@@ -31523,26 +31547,26 @@
         <v>1</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="F5" s="16">
         <v>11</v>
       </c>
       <c r="G5" s="20"/>
       <c r="H5" s="18" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="I5" s="13" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="J5" s="13" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="K5" s="20"/>
     </row>
@@ -31553,23 +31577,23 @@
         <v>2</v>
       </c>
       <c r="C6" s="30" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="F6" s="16">
         <v>11</v>
       </c>
       <c r="G6" s="20"/>
       <c r="H6" s="18" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="I6" s="20" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="J6" s="20"/>
       <c r="K6" s="20"/>
@@ -31581,20 +31605,20 @@
         <v>3</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="F7" s="16">
         <v>1000</v>
       </c>
       <c r="G7" s="20"/>
       <c r="H7" s="18" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="I7" s="20"/>
       <c r="J7" s="20"/>
@@ -31607,13 +31631,13 @@
         <v>4</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E8" s="13" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="F8" s="16">
         <v>100</v>
@@ -31631,25 +31655,25 @@
         <v>5</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>53</v>
+        <v>78</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="E9" s="25" t="s">
-        <v>55</v>
-      </c>
-      <c r="F9" s="26">
-        <v>1</v>
-      </c>
-      <c r="G9" s="15">
-        <v>0</v>
-      </c>
-      <c r="H9" s="18"/>
-      <c r="I9" s="20"/>
-      <c r="J9" s="20" t="s">
-        <v>56</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="E9" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="F9" s="16">
+        <v>11</v>
+      </c>
+      <c r="G9" s="20"/>
+      <c r="H9" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="I9" s="20" t="s">
+        <v>80</v>
+      </c>
+      <c r="J9" s="30"/>
       <c r="K9" s="20"/>
     </row>
     <row r="10" spans="1:11">
@@ -31659,23 +31683,23 @@
         <v>6</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="E10" s="13" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="F10" s="16">
         <v>11</v>
       </c>
       <c r="G10" s="20"/>
       <c r="H10" s="18" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="I10" s="20" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="J10" s="20"/>
       <c r="K10" s="15"/>
@@ -31687,25 +31711,25 @@
         <v>7</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>78</v>
+        <v>56</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="E11" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="F11" s="16">
-        <v>11</v>
-      </c>
-      <c r="G11" s="20"/>
-      <c r="H11" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="I11" s="20" t="s">
-        <v>77</v>
-      </c>
-      <c r="J11" s="30"/>
+        <v>57</v>
+      </c>
+      <c r="E11" s="25" t="s">
+        <v>58</v>
+      </c>
+      <c r="F11" s="26">
+        <v>1</v>
+      </c>
+      <c r="G11" s="15">
+        <v>0</v>
+      </c>
+      <c r="H11" s="18"/>
+      <c r="I11" s="20"/>
+      <c r="J11" s="20" t="s">
+        <v>59</v>
+      </c>
       <c r="K11" s="15"/>
     </row>
     <row r="12" spans="1:11">
@@ -31715,20 +31739,20 @@
         <v>8</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="D12" s="14" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="E12" s="15" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="F12" s="17"/>
       <c r="G12" s="20" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="H12" s="18" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="I12" s="20"/>
       <c r="J12" s="20"/>
@@ -31741,20 +31765,20 @@
         <v>9</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="D13" s="14" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="E13" s="15" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="F13" s="16"/>
       <c r="G13" s="20" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="H13" s="18" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="I13" s="20"/>
       <c r="J13" s="20"/>
@@ -31822,8 +31846,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C47D9D34-3566-4076-9C73-C771A13E5B1C}">
   <dimension ref="A1:K16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14:G15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="12.75"/>
@@ -31858,10 +31882,10 @@
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="3" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B2" s="32" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C2" s="32"/>
       <c r="D2" s="32"/>
@@ -31875,7 +31899,7 @@
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="3" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B3" s="32"/>
       <c r="C3" s="32"/>
@@ -31891,34 +31915,34 @@
     <row r="4" spans="1:11">
       <c r="A4" s="30"/>
       <c r="B4" s="2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="E4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="K4" s="2" t="s">
         <v>27</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="15.75" customHeight="1">
@@ -31928,26 +31952,26 @@
         <v>1</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="F5" s="16">
         <v>11</v>
       </c>
       <c r="G5" s="20"/>
       <c r="H5" s="18" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="I5" s="13" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="J5" s="13" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="K5" s="20"/>
     </row>
@@ -31958,23 +31982,23 @@
         <v>2</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="F6" s="16">
         <v>11</v>
       </c>
       <c r="G6" s="20"/>
       <c r="H6" s="18" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="I6" s="20" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="J6" s="20"/>
       <c r="K6" s="20"/>
@@ -31986,20 +32010,20 @@
         <v>3</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="F7" s="16">
         <v>1000</v>
       </c>
       <c r="G7" s="20"/>
       <c r="H7" s="18" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="I7" s="20"/>
       <c r="J7" s="20"/>
@@ -32012,23 +32036,23 @@
         <v>4</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E8" s="13" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="F8" s="16">
         <v>11</v>
       </c>
       <c r="G8" s="20"/>
       <c r="H8" s="18" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="I8" s="20" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="J8" s="20"/>
       <c r="K8" s="20"/>
@@ -32040,13 +32064,13 @@
         <v>5</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="F9" s="16"/>
       <c r="G9" s="20"/>
@@ -32062,13 +32086,13 @@
         <v>6</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E10" s="25" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="F10" s="26">
         <v>1</v>
@@ -32079,7 +32103,7 @@
       <c r="H10" s="18"/>
       <c r="I10" s="20"/>
       <c r="J10" s="20" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="K10" s="15"/>
     </row>
@@ -32090,25 +32114,25 @@
         <v>7</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>53</v>
+        <v>78</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="E11" s="25" t="s">
-        <v>55</v>
-      </c>
-      <c r="F11" s="26">
-        <v>1</v>
-      </c>
-      <c r="G11" s="15">
-        <v>0</v>
-      </c>
-      <c r="H11" s="18"/>
-      <c r="I11" s="20"/>
-      <c r="J11" s="20" t="s">
-        <v>56</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="E11" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="F11" s="16">
+        <v>11</v>
+      </c>
+      <c r="G11" s="20"/>
+      <c r="H11" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="I11" s="20" t="s">
+        <v>80</v>
+      </c>
+      <c r="J11" s="30"/>
       <c r="K11" s="15"/>
     </row>
     <row r="12" spans="1:11">
@@ -32118,23 +32142,23 @@
         <v>8</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="E12" s="13" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="F12" s="16">
         <v>11</v>
       </c>
       <c r="G12" s="20"/>
       <c r="H12" s="18" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="I12" s="20" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="J12" s="20"/>
       <c r="K12" s="15"/>
@@ -32146,25 +32170,25 @@
         <v>9</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>78</v>
+        <v>56</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="E13" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="F13" s="16">
-        <v>11</v>
-      </c>
-      <c r="G13" s="20"/>
-      <c r="H13" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="I13" s="20" t="s">
-        <v>77</v>
-      </c>
-      <c r="J13" s="30"/>
+        <v>57</v>
+      </c>
+      <c r="E13" s="25" t="s">
+        <v>58</v>
+      </c>
+      <c r="F13" s="26">
+        <v>1</v>
+      </c>
+      <c r="G13" s="15">
+        <v>0</v>
+      </c>
+      <c r="H13" s="18"/>
+      <c r="I13" s="20"/>
+      <c r="J13" s="20" t="s">
+        <v>59</v>
+      </c>
       <c r="K13" s="20"/>
     </row>
     <row r="14" spans="1:11">
@@ -32174,20 +32198,20 @@
         <v>10</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="D14" s="14" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="E14" s="15" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="F14" s="17"/>
       <c r="G14" s="20" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="H14" s="18" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="I14" s="20"/>
       <c r="J14" s="20"/>
@@ -32200,20 +32224,20 @@
         <v>11</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="D15" s="14" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="E15" s="15" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="F15" s="16"/>
       <c r="G15" s="20" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="H15" s="18" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="20"/>
@@ -32253,8 +32277,8 @@
   <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D11" sqref="D11"/>
+      <pane ySplit="4" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K16" sqref="B16:K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -32283,7 +32307,7 @@
     </row>
     <row r="2" spans="1:11" ht="12.75">
       <c r="A2" s="3" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B2" s="32"/>
       <c r="C2" s="32"/>
@@ -32298,7 +32322,7 @@
     </row>
     <row r="3" spans="1:11" ht="12.75">
       <c r="A3" s="3" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B3" s="32"/>
       <c r="C3" s="32"/>
@@ -32314,34 +32338,34 @@
     <row r="4" spans="1:11" ht="12.75">
       <c r="A4" s="30"/>
       <c r="B4" s="2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="E4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="K4" s="2" t="s">
         <v>27</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="15.75" customHeight="1">
@@ -32574,7 +32598,7 @@
         <v>2</v>
       </c>
       <c r="B1" s="35" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C1" s="36"/>
       <c r="D1" s="36"/>
@@ -32590,10 +32614,10 @@
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="3" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B2" s="37" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C2" s="36"/>
       <c r="D2" s="36"/>
@@ -32609,10 +32633,10 @@
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="3" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B3" s="37" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C3" s="36"/>
       <c r="D3" s="36"/>
@@ -32629,34 +32653,34 @@
     <row r="4" spans="1:13">
       <c r="A4" s="30"/>
       <c r="B4" s="2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="E4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="K4" s="2" t="s">
         <v>27</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>23</v>
       </c>
       <c r="L4" s="30"/>
       <c r="M4" s="30"/>
@@ -32668,26 +32692,26 @@
         <v>1</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="F5" s="16">
         <v>11</v>
       </c>
       <c r="G5" s="20"/>
       <c r="H5" s="18" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="I5" s="13" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="J5" s="13" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="K5" s="20"/>
       <c r="L5" s="30"/>
@@ -32700,20 +32724,20 @@
         <v>2</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="F6" s="16">
         <v>100</v>
       </c>
       <c r="G6" s="20"/>
       <c r="H6" s="18" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="I6" s="20"/>
       <c r="J6" s="20"/>
@@ -32728,13 +32752,13 @@
         <v>3</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="F7" s="16">
         <v>1000</v>
@@ -32754,13 +32778,13 @@
         <v>4</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E8" s="13" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="F8" s="16">
         <v>1</v>
@@ -32769,12 +32793,12 @@
         <v>0</v>
       </c>
       <c r="H8" s="18" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="I8" s="20"/>
       <c r="J8" s="20"/>
       <c r="K8" s="21" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="L8" s="30"/>
       <c r="M8" s="30"/>
@@ -32786,18 +32810,18 @@
         <v>5</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="F9" s="16"/>
       <c r="G9" s="20"/>
       <c r="H9" s="19" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="I9" s="20"/>
       <c r="J9" s="20"/>
@@ -32812,20 +32836,20 @@
         <v>6</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E10" s="13" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="F10" s="16">
         <v>11</v>
       </c>
       <c r="G10" s="20"/>
       <c r="H10" s="19" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="I10" s="20"/>
       <c r="J10" s="20"/>
@@ -32840,18 +32864,18 @@
         <v>7</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E11" s="13" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="F11" s="16"/>
       <c r="G11" s="20"/>
       <c r="H11" s="19" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="I11" s="20"/>
       <c r="J11" s="20"/>
@@ -32866,20 +32890,20 @@
         <v>8</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E12" s="13" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="F12" s="16">
         <v>11</v>
       </c>
       <c r="G12" s="15"/>
       <c r="H12" s="18" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="I12" s="20"/>
       <c r="J12" s="20"/>
